--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77096.16576678974</v>
+        <v>5151068.340509114</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77096.16576678974</v>
+        <v>5151068.340509114</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036237274.961457</v>
+        <v>39219504.82176995</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11720.79506588781</v>
+        <v>1029772.139638461</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21857.81522007951</v>
+        <v>1787740.169768081</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32003.94133885149</v>
+        <v>2545708.199897701</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42364.76347223308</v>
+        <v>3302916.532484468</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52725.58241927152</v>
+        <v>4060124.865071236</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63086.40455265309</v>
+        <v>4817333.197658002</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73447.20395562243</v>
+        <v>5574541.530244765</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83808.02608900404</v>
+        <v>6331749.862831526</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94168.84822238566</v>
+        <v>7088958.19541829</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104529.6703557672</v>
+        <v>7846166.528005052</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>114890.4924891488</v>
+        <v>8603374.860591816</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>125251.3146225304</v>
+        <v>9360583.193178583</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>135612.136755912</v>
+        <v>10117791.52576536</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>145972.9588892936</v>
+        <v>10874999.85835213</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156333.7810226753</v>
+        <v>11632208.1909389</v>
       </c>
     </row>
   </sheetData>
